--- a/data/long_razon/P24_8-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_8-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-62,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-51,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-33,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 106,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 279,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-85,92; 2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,92; -13,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,98; 48,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 226,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 80,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 49,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-33,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-35,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 49,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 106,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,72; 72,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,54; 22,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 63,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 49,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 60,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 28,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-43,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-43,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-56,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-51,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-72,3; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 152,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,4; -34,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 60,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 45,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,64; -30,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 10,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 56,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 83,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 288,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 42,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,22; -1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 80,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 19,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 87,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 12,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-33,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 68,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 392,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 167,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 55,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,95; 68,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 106,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 36,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 87,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 97,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-71,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>101,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,0; -23,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 589,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,28; 102,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 58,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 134,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 200,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 140,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 116,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-32,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-36,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-35,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-50,72; -7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 68,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 21,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,29; -23,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 28,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 39,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-45,93; -23,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 30,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 21,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_8-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_8-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.0577203273432059</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6828762566062202</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6346437496284647</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.02726041593767342</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.69970104081926</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.504081163955406</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.2001517006738319</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.6554833538088154</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3274185030383227</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.4394591229686742</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.3085800793435462</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1371035415884722</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.09958542012611886</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.2080450931070911</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.8746756200874285</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5431495135717418</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3502794373083837</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8795390355886421</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6756529789494236</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1311710589904568</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7322183285408634</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.6165415042337322</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.06768298333187141</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2345830500957259</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.249186275221431</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5724901346425744</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3536735154964699</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.460539524209181</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.290945415068313</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.006964752134577781</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.163331126293098</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.369861674985017</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.1358654127129788</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.959096399943871</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.81890149234604</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.07797768044023531</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.609892572001048</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.898852563970231</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.360994558630892</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>2.011119332867767</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.05379646450890692</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.8968500634730154</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.3760253465745722</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.9834166161709771</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>2.198177176284024</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.3117252447934994</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.02368780684013135</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2083787600357344</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8087231003181561</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1077209018481762</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.396200594985605</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1859300813434828</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1150542720276286</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.01662196268354016</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.498786474197972</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.359948018429996</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.09367756026725503</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.1538518064632865</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.3421276327294771</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.3145090401071953</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.8102039409969802</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5247972910956542</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.6556610801729404</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3115410429733551</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7096200466875475</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.6823953218148591</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.580273336182936</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4791663083570147</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4481100146673786</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1162598806273771</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.6384270668243582</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.4433776166281386</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.4423701219410581</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.1610686766428508</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.3015194591635089</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.5441283639653425</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.21353101121908</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6547471628447531</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.177723161963797</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.398075260356554</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1361220478362887</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5211742914286076</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3714836977390021</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.849617161105758</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.634064474555731</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.04062165397442741</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.4902944281518937</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2780513536963466</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.784443438372127</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.519794745265803</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.4482055595028945</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.4331388141853122</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4344170000722234</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.02652069242516258</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1268316799537447</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.5587227486819699</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.08020289900441968</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.01615745758436679</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2441754992195699</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.06431552227016438</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.5148920249582465</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.2432143866377953</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.1575759771750338</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.1672462719901425</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.01002916272672518</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.7230782275678009</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7380017583973667</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2189960119664348</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4896309083425484</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.484236850528553</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.7106930175154884</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4432024316123638</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2984823573498921</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4973448303675006</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.4287253115341928</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.6788366408609093</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.4865918752208099</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1406699958602925</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.3904369874891677</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.3334223677362059</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.00217781130895888</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1213547880190022</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.515125717056022</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8214181894734517</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.551972885956176</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.3322119748274819</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.482761945246391</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.4699681879380621</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1420649214893138</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4608372544231318</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.3184191144487835</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.09528234276918382</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.601715351482726</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.1465306367456465</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.5140957137707446</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.02286607888794847</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6406308756689288</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1210868064818079</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.276017109111203</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.8057848276058285</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.3561466523840984</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.189495526921284</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1688834468417236</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.4086324235128091</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.51514466693855</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.2573894346120989</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.3353870430432629</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.1501676411501851</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.3631924428407729</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.04460037699527893</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.448641020862776</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1658657840534455</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.5411763301973173</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.6289348832910011</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1392783642298616</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.5622353419358895</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2040045129378825</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4267176640171377</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.61979799093417</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.7224538404587156</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.4661766362475998</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.06726649007227568</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.3772447819349546</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.5719646654832566</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.3986823869403002</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.726847035025977</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.222620902711965</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5053637559943088</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3808188994507006</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.223317634164359</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.04243921703398655</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.7942148556784361</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2169459826286607</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.02454585884505781</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>-0.0713969457784808</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.01734580923440675</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.9653180528320923</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.1540497663981998</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>-0.06540019213893458</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.5919945324984196</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.3342489266077587</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.09380020405897</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.5416435136752201</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.132284993974172</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.1107282598584971</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.07781270483558959</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.02601184522624805</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.3221566183132155</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.1588812160697985</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.1624031805623671</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.1517264065104479</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.2869259887566288</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.4114245087190764</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0.1461248341960818</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.1421713453924324</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.7679149486291175</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1241877115812995</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.06841627270372692</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4911295302653212</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.5007230139673201</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4525489104831845</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.4503368419722108</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.185333763118116</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3191009956767774</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2963226043702338</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.4547016094847188</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.2161711185259043</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>0.01120452179192653</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.2991436809146428</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.2564211447237019</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.6490174926865957</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.940173300762503</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.668090117628318</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.216206667216077</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.483493715417382</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.5071575696275132</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.6773173965305599</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.9827330453681613</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>1.072319498402037</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.9126402317945165</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.3608219592245647</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.016266874087821</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.9634721611315379</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.7960003766794286</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.7405442639115626</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.7291181005426906</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.050404209321854</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.147834099798158</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.2205901479796508</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.1561996914133141</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.02370191710667513</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.248517302188461</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.6452589945772053</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.02330129897308925</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.9154640829514034</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.2978001565763415</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.3863887829771473</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.3227192088142204</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.05094864148777309</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.6519705154015132</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.9298807147742763</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.3851297859089327</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.6813359090727262</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.5943716999242044</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6584387681025364</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.504779573297217</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.3124659825581371</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.18491902950382</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5466916884692523</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.1182231095837426</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.6264489517122604</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.2309868255119975</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.2101229057924186</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.414465918194978</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.138914648410256</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>-0.2652802672497777</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>6.958780009612428</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.89156661057627</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.673458044927156</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2.599102000459875</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.8158952589117393</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.385405696563087</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2.105359639886109</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.9010229205349</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>3.393207029851533</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.1143198085500754</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.410804633299401</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>1.263447477168486</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.8529618811629501</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>2.157702216305632</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.3213996350350004</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.272463439872365</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.09130651092157574</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1265290654836338</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4118630348316452</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.3570588243012804</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.01172808489035013</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.1476853194766542</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.07152423562024318</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.1819074417725215</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.3441089089349974</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.1044909066584659</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.04680478395066948</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.003318324200170582</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.2703452049967924</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.5108869503548285</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.0345367154204338</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.3023673559387314</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2059954332632527</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.01030908929036631</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.4726662801812549</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.1847082030891423</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.04841117745855771</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2477929865665816</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.06827311850916157</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.4630911639391356</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.09343365958281384</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.09998999623225895</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.1627241670376651</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.03423728521006322</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.07869937521955772</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7444301645279781</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2022572945305286</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6541377440632893</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.107785449726089</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.2132526259578202</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.2961704095466997</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.4102779904645644</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.1454731071001509</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.5259521965245898</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.2255776248176336</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.3337206504951104</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.2168124699060742</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.2301094258454644</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.6004703089676453</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
